--- a/server/docs/노크_통신규약_최지수_v2.8.xlsx
+++ b/server/docs/노크_통신규약_최지수_v2.8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="405" windowWidth="15960" windowHeight="13380" tabRatio="927" firstSheet="12" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="15960" windowHeight="13380" tabRatio="927" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="작성방법" sheetId="1" r:id="rId1"/>
@@ -2200,11 +2200,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>/today/:u_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>/refresh/:u_id</t>
+    <t>knock/refresh/:u_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>knock/today/:u_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -12735,7 +12735,7 @@
   </sheetPr>
   <dimension ref="A1:IU22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -12772,7 +12772,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="18"/>
@@ -12910,9 +12910,9 @@
   </sheetPr>
   <dimension ref="A1:IU22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -12947,7 +12947,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="18"/>

--- a/server/docs/노크_통신규약_최지수_v2.8.xlsx
+++ b/server/docs/노크_통신규약_최지수_v2.8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="405" windowWidth="15960" windowHeight="13380" tabRatio="927" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15960" windowHeight="13320" tabRatio="927" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="작성방법" sheetId="1" r:id="rId1"/>
@@ -1688,17 +1688,6 @@
     "msg": "success",
     "alias": "조니댑",
     "thumbnail": "http://naver.com/jony.jpg",
-    "data": {"message": "행복한 하루",
-             "date": 2015-12-23,
-             "count": 7}
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "success",
-    "alias": "조니댑",
-    "thumbnail": "http://naver.com/jony.jpg",
     "data": [{"from": "조니댑",
              "to": "안졸리나졸려",
              "message": "행복한 하루 보내",
@@ -2205,6 +2194,20 @@
   </si>
   <si>
     <t>knock/today/:u_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "success",
+    "r_id" 1,
+    "alias": "조니댑",
+    "thumbnail": "http://naver.com/jony.jpg",
+    "data": {
+        "message": "행복한 하루",
+        "date": 2015-12-23,
+        "count": 7
+     }
+}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5018,7 +5021,7 @@
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="62"/>
       <c r="B8" s="66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="66" t="s">
@@ -5030,7 +5033,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="130" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C9" s="131"/>
       <c r="D9" s="132"/>
@@ -5464,7 +5467,7 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="129" customHeight="1">
@@ -5472,7 +5475,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="138" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C8" s="139"/>
       <c r="D8" s="83"/>
@@ -6011,7 +6014,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="129" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2" s="128"/>
       <c r="D2" s="128"/>
@@ -6021,7 +6024,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="18"/>
@@ -6085,31 +6088,31 @@
     <row r="10" spans="1:4" ht="20.45" customHeight="1">
       <c r="A10" s="141"/>
       <c r="B10" s="106" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C10" s="105"/>
       <c r="D10" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.45" customHeight="1">
       <c r="A11" s="142"/>
       <c r="B11" s="106"/>
       <c r="C11" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.45" customHeight="1">
       <c r="A12" s="142"/>
       <c r="B12" s="106"/>
       <c r="C12" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.45" customHeight="1">
@@ -6119,7 +6122,7 @@
         <v>215</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="260.25" customHeight="1">
@@ -6127,7 +6130,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C14" s="134"/>
       <c r="D14" s="135"/>
@@ -6238,7 +6241,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6246,7 +6249,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="107"/>
       <c r="B8" s="118" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" s="119"/>
       <c r="D8" s="25"/>
@@ -6254,7 +6257,7 @@
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="107"/>
       <c r="B9" s="118" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C9" s="119"/>
       <c r="D9" s="25"/>
@@ -6262,7 +6265,7 @@
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="107"/>
       <c r="B10" s="118" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="25"/>
@@ -6270,7 +6273,7 @@
     <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" s="107"/>
       <c r="B11" s="118" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="119"/>
       <c r="D11" s="25"/>
@@ -6278,7 +6281,7 @@
     <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="107"/>
       <c r="B12" s="118" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="119"/>
       <c r="D12" s="25"/>
@@ -6286,7 +6289,7 @@
     <row r="13" spans="1:4" ht="21" customHeight="1">
       <c r="A13" s="107"/>
       <c r="B13" s="118" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C13" s="119"/>
       <c r="D13" s="25"/>
@@ -6294,7 +6297,7 @@
     <row r="14" spans="1:4" ht="21" customHeight="1">
       <c r="A14" s="107"/>
       <c r="B14" s="118" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C14" s="119"/>
       <c r="D14" s="25"/>
@@ -6302,7 +6305,7 @@
     <row r="15" spans="1:4" ht="21" customHeight="1">
       <c r="A15" s="107"/>
       <c r="B15" s="118" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C15" s="119"/>
       <c r="D15" s="25"/>
@@ -6310,7 +6313,7 @@
     <row r="16" spans="1:4" ht="21" customHeight="1">
       <c r="A16" s="107"/>
       <c r="B16" s="118" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16" s="119"/>
       <c r="D16" s="25"/>
@@ -6318,7 +6321,7 @@
     <row r="17" spans="1:4" ht="21" customHeight="1">
       <c r="A17" s="107"/>
       <c r="B17" s="118" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C17" s="119"/>
       <c r="D17" s="25"/>
@@ -6326,7 +6329,7 @@
     <row r="18" spans="1:4" ht="21" customHeight="1">
       <c r="A18" s="107"/>
       <c r="B18" s="118" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C18" s="119"/>
       <c r="D18" s="25"/>
@@ -6334,7 +6337,7 @@
     <row r="19" spans="1:4" ht="21" customHeight="1">
       <c r="A19" s="107"/>
       <c r="B19" s="118" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="25"/>
@@ -6342,7 +6345,7 @@
     <row r="20" spans="1:4" ht="21" customHeight="1">
       <c r="A20" s="107"/>
       <c r="B20" s="118" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C20" s="119"/>
       <c r="D20" s="25"/>
@@ -6350,7 +6353,7 @@
     <row r="21" spans="1:4" ht="21" customHeight="1">
       <c r="A21" s="107"/>
       <c r="B21" s="118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C21" s="119"/>
       <c r="D21" s="25"/>
@@ -6358,7 +6361,7 @@
     <row r="22" spans="1:4" ht="21" customHeight="1">
       <c r="A22" s="107"/>
       <c r="B22" s="118" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C22" s="119"/>
       <c r="D22" s="25"/>
@@ -6366,7 +6369,7 @@
     <row r="23" spans="1:4" ht="21" customHeight="1">
       <c r="A23" s="107"/>
       <c r="B23" s="118" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="25"/>
@@ -6374,7 +6377,7 @@
     <row r="24" spans="1:4" ht="21" customHeight="1">
       <c r="A24" s="107"/>
       <c r="B24" s="118" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" s="119"/>
       <c r="D24" s="25"/>
@@ -6382,7 +6385,7 @@
     <row r="25" spans="1:4" ht="21" customHeight="1">
       <c r="A25" s="107"/>
       <c r="B25" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" s="119"/>
       <c r="D25" s="25"/>
@@ -6390,7 +6393,7 @@
     <row r="26" spans="1:4" ht="21" customHeight="1">
       <c r="A26" s="107"/>
       <c r="B26" s="118" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C26" s="119"/>
       <c r="D26" s="25"/>
@@ -6398,7 +6401,7 @@
     <row r="27" spans="1:4" ht="21" customHeight="1">
       <c r="A27" s="107"/>
       <c r="B27" s="118" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C27" s="119"/>
       <c r="D27" s="25"/>
@@ -6406,7 +6409,7 @@
     <row r="28" spans="1:4" ht="21" customHeight="1">
       <c r="A28" s="107"/>
       <c r="B28" s="118" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C28" s="119"/>
       <c r="D28" s="25"/>
@@ -6414,7 +6417,7 @@
     <row r="29" spans="1:4" ht="21" customHeight="1">
       <c r="A29" s="107"/>
       <c r="B29" s="118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C29" s="119"/>
       <c r="D29" s="25"/>
@@ -6422,7 +6425,7 @@
     <row r="30" spans="1:4" ht="21" customHeight="1">
       <c r="A30" s="107"/>
       <c r="B30" s="118" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C30" s="119"/>
       <c r="D30" s="25"/>
@@ -6430,7 +6433,7 @@
     <row r="31" spans="1:4" ht="21" customHeight="1">
       <c r="A31" s="107"/>
       <c r="B31" s="118" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C31" s="119"/>
       <c r="D31" s="25"/>
@@ -6440,7 +6443,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C32" s="139"/>
       <c r="D32" s="25"/>
@@ -6554,7 +6557,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="20.85" customHeight="1">
@@ -6576,7 +6579,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="109" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="20.85" customHeight="1">
@@ -6596,7 +6599,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
       <c r="H4" s="110" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -7384,13 +7387,13 @@
     <row r="7" spans="1:256" ht="20.85" customHeight="1">
       <c r="A7" s="94"/>
       <c r="B7" s="111" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>360</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>361</v>
       </c>
       <c r="E7" s="8">
         <v>5</v>
@@ -7921,7 +7924,7 @@
         <v>90</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>36</v>
@@ -8189,7 +8192,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>116</v>
@@ -11222,10 +11225,10 @@
     <row r="27" spans="1:256" ht="20.45" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="115" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>338</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>181</v>
@@ -12019,7 +12022,7 @@
     </row>
     <row r="30" spans="1:256" ht="20.45" customHeight="1">
       <c r="A30" s="104" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B30" s="114" t="s">
         <v>74</v>
@@ -12432,7 +12435,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>92</v>
@@ -12508,11 +12511,11 @@
     <row r="11" spans="1:4" ht="20.45" customHeight="1">
       <c r="A11" s="148"/>
       <c r="B11" s="122" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11" s="121"/>
       <c r="D11" s="125" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.45" customHeight="1">
@@ -12528,11 +12531,11 @@
     <row r="13" spans="1:4" ht="20.45" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="123" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C13" s="121"/>
       <c r="D13" s="124" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="189.75" customHeight="1">
@@ -12540,7 +12543,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C14" s="134"/>
       <c r="D14" s="135"/>
@@ -12608,7 +12611,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="18"/>
@@ -12704,7 +12707,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C13" s="134"/>
       <c r="D13" s="135"/>
@@ -12735,9 +12738,9 @@
   </sheetPr>
   <dimension ref="A1:IU22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -12772,7 +12775,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="18"/>
@@ -12947,7 +12950,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="18"/>
@@ -13390,7 +13393,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C30" s="131"/>
       <c r="D30" s="132"/>
@@ -13597,7 +13600,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" s="131"/>
       <c r="D17" s="132"/>
@@ -13804,7 +13807,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C17" s="131"/>
       <c r="D17" s="132"/>
@@ -14011,7 +14014,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" s="131"/>
       <c r="D17" s="132"/>
@@ -14218,7 +14221,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C17" s="131"/>
       <c r="D17" s="132"/>
@@ -14471,7 +14474,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="130" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C25" s="131"/>
       <c r="D25" s="132"/>
@@ -14501,9 +14504,9 @@
   </sheetPr>
   <dimension ref="A1:IU23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15:D15"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -14656,7 +14659,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="130" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="C15" s="131"/>
       <c r="D15" s="132"/>
@@ -14713,7 +14716,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="129" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" s="128"/>
       <c r="D2" s="128"/>
@@ -14723,7 +14726,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="18"/>
@@ -14733,7 +14736,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -14763,61 +14766,61 @@
         <v>39</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="137"/>
       <c r="B8" s="98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="137"/>
       <c r="B9" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="137"/>
       <c r="B10" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="137"/>
       <c r="B11" s="98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="140"/>
       <c r="B12" s="51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" ht="81.75" customHeight="1">
@@ -14825,7 +14828,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" s="139"/>
       <c r="D13" s="41"/>
@@ -14932,7 +14935,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="18"/>
@@ -15097,7 +15100,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>170</v>
@@ -15107,7 +15110,7 @@
     <row r="8" spans="1:4" ht="20.25" customHeight="1">
       <c r="A8" s="137"/>
       <c r="B8" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>171</v>
@@ -15119,7 +15122,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C9" s="139"/>
       <c r="D9" s="52"/>
@@ -15364,7 +15367,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C17" s="131"/>
       <c r="D17" s="132"/>
@@ -15396,7 +15399,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14:D14"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
